--- a/StructureDefinition-profile-PaymentReconciliation.xlsx
+++ b/StructureDefinition-profile-PaymentReconciliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7639344-06:00</t>
+    <t>2026-02-09T22:05:43.2656992-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,305 @@
     <t>PaymentReconciliation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code to indicate the nature of the payment such as payment, adjustment.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.type` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:kind</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.kind|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.kind from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The workflow or activity which gave rise to or during which the payment ocurred such as a kiosk, deposit on account, periodic payment etc.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.kind` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:issuerType</t>
+  </si>
+  <si>
+    <t>issuerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.issuerType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.issuerType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of the source such as patient or insurance.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.issuerType` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:method</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.method|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.method from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The means of payment such as check, card cash, or electronic funds transfer.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.method` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:cardBrand</t>
+  </si>
+  <si>
+    <t>cardBrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.cardBrand|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.cardBrand from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The card brand such as debit, Visa, Amex etc. used if a card is the method of payment.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.cardBrand` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:accountNumber</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.accountNumber|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.accountNumber from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A portion of the account number, often the last 4 digits, used for verification not charging purposes.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.accountNumber` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:expirationDate</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.expirationDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.expirationDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The year and month (YYYY-MM) when the instrument, typically card, expires.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.expirationDate` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:processor</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.processor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The name of the card processor, etf processor, bank for checks.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.processor` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:referenceNumber</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.referenceNumber|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.referenceNumber from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The check number, eft reference, car processor reference.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.referenceNumber` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:authorization</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.authorization|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.authorization from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An alphanumeric issued by the processor to confirm the successful issuance of payment.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.authorization` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:tenderedAmount</t>
+  </si>
+  <si>
+    <t>tenderedAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.tenderedAmount|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.tenderedAmount from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The amount offered by the issuer, typically applies to cash when the issuer provides an amount in bank note denominations equal to or excess of the amount actually being paid.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.tenderedAmount` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:returnedAmount</t>
+  </si>
+  <si>
+    <t>returnedAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.returnedAmount|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.returnedAmount from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The amount returned by the receiver which is excess to the amount payable, often referred to as 'change'.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.returnedAmount` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:enterer</t>
+  </si>
+  <si>
+    <t>enterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.enterer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.enterer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.enterer` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.location` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +728,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -602,30 +877,26 @@
     <t>PaymentReconciliation.paymentIssuer.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.paymentIssuer|0.0.1-snapshot-3}
-</t>
+    <t>PaymentReconciliation.paymentIssuer.extension:paymentIssuer</t>
+  </si>
+  <si>
+    <t>paymentIssuer</t>
   </si>
   <si>
     <t>Cross-version extension for PaymentReconciliation.paymentIssuer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.paymentIssuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.paymentIssuer` is mapped to FHIR R4 element `PaymentReconciliation.paymentIssuer`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.paymentIssuer.reference</t>
@@ -854,7 +1125,71 @@
     <t>PaymentReconciliation.detail.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>PaymentReconciliation.detail.extension:targetItem</t>
+  </si>
+  <si>
+    <t>targetItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation.targetItem|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.allocation.targetItem[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the claim line item, encounter or other sub-element being paid. Note payment may be partial, that is not match the then outstanding balance or amount incurred.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.allocation.targetItem[x]` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.extension:target</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.allocation.target from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account,http://hl7.org/fhir/StructureDefinition/ChargeItem,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/Invoice in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.target` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.allocation.target` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.extension:encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.allocation.encounter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.allocation.encounter` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.extension:account</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.allocation.account from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.account` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.allocation.account` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.modifierExtension</t>
@@ -969,11 +1304,20 @@
     <t>PaymentReconciliation.detail.response.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation.response|0.0.1-snapshot-3}
-</t>
+    <t>PaymentReconciliation.detail.response.extension:response</t>
+  </si>
+  <si>
+    <t>response</t>
   </si>
   <si>
     <t>Cross-version extension for PaymentReconciliation.allocation.response from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ClaimResponse in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.response` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PaymentReconciliation.allocation.response` is mapped to FHIR R4 element `PaymentReconciliation.detail.response`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.response.reference</t>
@@ -1071,6 +1415,12 @@
   </si>
   <si>
     <t>PaymentReconciliation.processNote.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>PaymentReconciliation.processNote.modifierExtension</t>
@@ -1413,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1422,9 +1772,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1432,7 +1782,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2388,11 +2738,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2407,17 +2757,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2454,16 +2802,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2490,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2498,43 +2844,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2582,7 +2928,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2591,7 +2937,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2606,17 +2952,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2625,7 +2973,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2637,18 +2985,18 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2696,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2705,16 +3053,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2725,18 +3073,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -2745,26 +3095,24 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2788,13 +3136,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2812,25 +3160,25 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2841,12 +3189,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2864,21 +3214,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2926,25 +3276,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2955,18 +3305,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -2978,21 +3330,21 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3040,25 +3392,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3069,12 +3421,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3092,23 +3446,21 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3156,25 +3508,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3185,12 +3537,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3211,15 +3565,17 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3268,19 +3624,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3292,26 +3648,28 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3323,15 +3681,17 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3368,19 +3728,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3389,7 +3749,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>138</v>
@@ -3412,9 +3772,11 @@
         <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3435,16 +3797,16 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3494,7 +3856,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3503,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>138</v>
@@ -3523,12 +3885,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3546,19 +3910,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3608,19 +3972,19 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -3632,17 +3996,19 @@
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,19 +4026,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3698,13 +4064,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3722,19 +4088,19 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3746,17 +4112,19 @@
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3774,19 +4142,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3836,19 +4204,19 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3860,17 +4228,19 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3888,19 +4258,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3950,19 +4320,19 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -3974,17 +4344,19 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4005,18 +4377,18 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4064,28 +4436,28 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4093,43 +4465,45 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4184,13 +4558,13 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4199,18 +4573,18 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4221,7 +4595,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4233,19 +4607,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4270,13 +4642,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4294,13 +4666,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4309,10 +4681,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4323,10 +4695,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4334,7 +4706,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4343,23 +4715,25 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4384,13 +4758,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4408,10 +4782,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4423,10 +4797,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4448,7 +4822,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4525,7 +4899,7 @@
         <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4540,7 +4914,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4551,10 +4925,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4577,17 +4951,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4636,7 +5010,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -4651,10 +5025,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4665,10 +5039,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4688,22 +5062,22 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4752,7 +5126,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4767,10 +5141,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4781,10 +5155,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4795,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4807,18 +5181,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4866,19 +5238,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4890,15 +5262,15 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4909,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4921,13 +5293,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4966,31 +5338,31 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5002,26 +5374,28 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5033,16 +5407,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5092,7 +5466,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5116,51 +5490,49 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5208,19 +5580,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5237,10 +5609,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5260,21 +5632,21 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5298,13 +5670,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5322,7 +5694,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5346,15 +5718,15 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5374,21 +5746,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5436,7 +5808,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5460,15 +5832,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5476,7 +5848,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5488,23 +5860,21 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5528,13 +5898,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5552,10 +5922,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
@@ -5576,15 +5946,15 @@
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5607,17 +5977,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5666,7 +6036,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5684,10 +6054,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5695,10 +6065,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5721,17 +6091,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5780,7 +6150,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5801,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5809,10 +6179,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5835,17 +6205,19 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5870,13 +6242,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5894,7 +6266,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5923,10 +6295,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5949,16 +6321,18 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6006,7 +6380,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6018,10 +6392,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6030,15 +6404,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6049,7 +6423,7 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6058,19 +6432,21 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6106,31 +6482,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6147,10 +6523,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6158,7 +6534,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6170,19 +6546,21 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6230,19 +6608,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6259,10 +6637,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6282,21 +6660,23 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6344,7 +6724,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6353,7 +6733,7 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
@@ -6368,15 +6748,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6387,7 +6767,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6396,21 +6776,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6434,13 +6814,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6458,13 +6838,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6482,15 +6862,15 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6510,20 +6890,18 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6572,7 +6950,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6584,7 +6962,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6596,15 +6974,15 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6615,7 +6993,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6624,20 +7002,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6674,31 +7050,29 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6710,17 +7084,19 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6741,18 +7117,18 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6800,19 +7176,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -6829,12 +7205,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -6855,18 +7233,18 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -6914,19 +7292,19 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -6943,12 +7321,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -6969,18 +7349,18 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7028,19 +7408,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7057,12 +7437,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7083,18 +7465,18 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7142,19 +7524,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7171,45 +7553,45 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7234,13 +7616,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7258,19 +7640,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7282,15 +7664,15 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7301,7 +7683,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7313,17 +7695,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7372,13 +7754,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7401,10 +7783,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7427,16 +7809,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>386</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7484,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>186</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7496,7 +7880,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7508,26 +7892,26 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7539,18 +7923,20 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>389</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7574,13 +7960,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7598,19 +7984,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7622,50 +8008,48 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7714,19 +8098,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -7738,15 +8122,15 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7769,17 +8153,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7804,13 +8188,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7828,7 +8212,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7857,10 +8241,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7883,17 +8267,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -7942,7 +8326,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7963,9 +8347,2061 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-PaymentReconciliation.xlsx
+++ b/StructureDefinition-profile-PaymentReconciliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2656992-06:00</t>
+    <t>2026-02-17T14:42:26.8754247-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Code to indicate the nature of the payment such as payment, adjustment.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.type` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.type` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -485,7 +485,7 @@
     <t>The workflow or activity which gave rise to or during which the payment ocurred such as a kiosk, deposit on account, periodic payment etc.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.kind` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.kind` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:issuerType</t>
@@ -504,7 +504,7 @@
     <t>The type of the source such as patient or insurance.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.issuerType` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.issuerType` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:method</t>
@@ -523,7 +523,7 @@
     <t>The means of payment such as check, card cash, or electronic funds transfer.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.method` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.method` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:cardBrand</t>
@@ -542,7 +542,7 @@
     <t>The card brand such as debit, Visa, Amex etc. used if a card is the method of payment.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.cardBrand` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.cardBrand` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:accountNumber</t>
@@ -561,7 +561,7 @@
     <t>A portion of the account number, often the last 4 digits, used for verification not charging purposes.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.accountNumber` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.accountNumber` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:expirationDate</t>
@@ -580,7 +580,7 @@
     <t>The year and month (YYYY-MM) when the instrument, typically card, expires.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.expirationDate` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.expirationDate` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:processor</t>
@@ -599,7 +599,7 @@
     <t>The name of the card processor, etf processor, bank for checks.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.processor` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.processor` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:referenceNumber</t>
@@ -618,7 +618,7 @@
     <t>The check number, eft reference, car processor reference.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.referenceNumber` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.referenceNumber` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:authorization</t>
@@ -637,7 +637,7 @@
     <t>An alphanumeric issued by the processor to confirm the successful issuance of payment.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.authorization` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.authorization` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:tenderedAmount</t>
@@ -656,7 +656,7 @@
     <t>The amount offered by the issuer, typically applies to cash when the issuer provides an amount in bank note denominations equal to or excess of the amount actually being paid.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.tenderedAmount` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.tenderedAmount` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:returnedAmount</t>
@@ -675,7 +675,7 @@
     <t>The amount returned by the receiver which is excess to the amount payable, often referred to as 'change'.</t>
   </si>
   <si>
-    <t>Element `PaymentReconciliation.returnedAmount` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Element `PaymentReconciliation.returnedAmount` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:enterer</t>
@@ -695,7 +695,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.enterer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.enterer` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+Element `PaymentReconciliation.enterer` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.extension:location</t>
@@ -711,7 +711,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.location` is will have a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+Element `PaymentReconciliation.location` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.modifierExtension</t>
@@ -896,7 +896,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.paymentIssuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.paymentIssuer` is mapped to FHIR R4 element `PaymentReconciliation.paymentIssuer`.</t>
+Element `PaymentReconciliation.paymentIssuer` has is mapped to FHIR R4 element `PaymentReconciliation.paymentIssuer`, but has no comparisons.</t>
   </si>
   <si>
     <t>PaymentReconciliation.paymentIssuer.reference</t>
@@ -1125,71 +1125,20 @@
     <t>PaymentReconciliation.detail.extension</t>
   </si>
   <si>
-    <t>PaymentReconciliation.detail.extension:targetItem</t>
-  </si>
-  <si>
-    <t>targetItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation.targetItem|0.0.1-snapshot-3}
+    <t>PaymentReconciliation.detail.extension:allocation</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation.targetItem[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies the claim line item, encounter or other sub-element being paid. Note payment may be partial, that is not match the then outstanding balance or amount incurred.</t>
-  </si>
-  <si>
-    <t>Element `PaymentReconciliation.allocation.targetItem[x]` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.extension:target</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation.target from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account,http://hl7.org/fhir/StructureDefinition/ChargeItem,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/Invoice in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.target` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.allocation.target` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.extension:encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation.encounter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.allocation.encounter` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.extension:account</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation.account from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.account` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.allocation.account` is will have a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
+    <t>Cross-version extension for PaymentReconciliation.allocation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.allocation` has is mapped to FHIR R4 element `PaymentReconciliation.detail`, but has no comparisons.</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.modifierExtension</t>
@@ -1298,40 +1247,6 @@
     <t>Needed to provide a linkage to the payment commitment.</t>
   </si>
   <si>
-    <t>PaymentReconciliation.detail.response.id</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.extension</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.extension:response</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation.response from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ClaimResponse in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.allocation.response` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.allocation.response` is mapped to FHIR R4 element `PaymentReconciliation.detail.response`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.reference</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.type</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.identifier</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.response.display</t>
-  </si>
-  <si>
     <t>PaymentReconciliation.detail.date</t>
   </si>
   <si>
@@ -1417,10 +1332,20 @@
     <t>PaymentReconciliation.processNote.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>PaymentReconciliation.processNote.extension:processNote</t>
+  </si>
+  <si>
+    <t>processNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processNote|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PaymentReconciliation.processNote from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.processNote` has is mapped to FHIR R4 element `PaymentReconciliation.processNote`, but has no comparisons.</t>
   </si>
   <si>
     <t>PaymentReconciliation.processNote.modifierExtension</t>
@@ -1763,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1782,7 +1707,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7105,7 +7030,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7123,10 +7048,10 @@
         <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7205,46 +7130,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7292,7 +7217,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7316,19 +7241,17 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7349,18 +7272,18 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7408,19 +7331,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7437,14 +7360,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7465,18 +7386,18 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7524,19 +7445,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7553,45 +7474,45 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>228</v>
+        <v>376</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7616,13 +7537,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7640,19 +7561,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7664,7 +7585,7 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7695,17 +7616,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7783,10 +7704,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7809,17 +7730,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7868,7 +7789,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7897,10 +7818,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7908,7 +7829,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7923,17 +7844,15 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>391</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>392</v>
       </c>
@@ -7960,13 +7879,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7984,10 +7903,10 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>87</v>
@@ -8013,10 +7932,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8039,17 +7958,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8098,7 +8017,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8127,10 +8046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8153,17 +8072,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8212,7 +8131,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8241,10 +8160,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8267,17 +8186,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8245,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8355,10 +8274,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8381,16 +8300,18 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8438,7 +8359,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8450,7 +8371,7 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8462,15 +8383,15 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8481,7 +8402,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8493,16 +8414,20 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8526,43 +8451,43 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8579,14 +8504,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8595,7 +8518,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8607,18 +8530,18 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>214</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8666,7 +8589,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>276</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8678,7 +8601,7 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8695,10 +8618,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8718,20 +8641,18 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8780,7 +8701,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8789,10 +8710,10 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8804,15 +8725,15 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>130</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8823,7 +8744,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8832,20 +8753,18 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8870,43 +8789,41 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8918,17 +8835,19 @@
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8937,7 +8856,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8946,19 +8865,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9008,19 +8927,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9032,49 +8951,51 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9122,19 +9043,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9151,10 +9072,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9177,17 +9098,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9212,13 +9133,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9236,7 +9157,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9265,10 +9186,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9291,17 +9212,17 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9350,7 +9271,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9371,1037 +9292,9 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN75" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-PaymentReconciliation.xlsx
+++ b/StructureDefinition-profile-PaymentReconciliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8754247-06:00</t>
+    <t>2026-02-20T11:59:20.9155309-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PaymentReconciliation|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PaymentReconciliation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.type|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.type}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.kind|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.kind}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>issuerType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.issuerType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.issuerType}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>method</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.method|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.method}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>cardBrand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.cardBrand|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.cardBrand}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>accountNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.accountNumber|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.accountNumber}
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.expirationDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.expirationDate}
 </t>
   </si>
   <si>
@@ -589,7 +589,7 @@
     <t>processor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processor|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processor}
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>referenceNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.referenceNumber|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.referenceNumber}
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.authorization|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.authorization}
 </t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <t>tenderedAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.tenderedAmount|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.tenderedAmount}
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>returnedAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.returnedAmount|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.returnedAmount}
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1131,7 +1131,7 @@
     <t>allocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation}
 </t>
   </si>
   <si>
@@ -1338,7 +1338,7 @@
     <t>processNote</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processNote|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processNote}
 </t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-PaymentReconciliation.xlsx
+++ b/StructureDefinition-profile-PaymentReconciliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9155309-06:00</t>
+    <t>2026-02-21T13:36:54.3174896-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PaymentReconciliation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PaymentReconciliation|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.type}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.kind}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.kind|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>issuerType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.issuerType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.issuerType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>method</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.method|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>cardBrand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.cardBrand}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.cardBrand|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>accountNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.accountNumber}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.accountNumber|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.expirationDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.expirationDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -589,7 +589,7 @@
     <t>processor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processor}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processor|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>referenceNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.referenceNumber}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.referenceNumber|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.authorization}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.authorization|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <t>tenderedAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.tenderedAmount}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.tenderedAmount|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>returnedAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.returnedAmount}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.returnedAmount|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -676,42 +676,6 @@
   </si>
   <si>
     <t>Element `PaymentReconciliation.returnedAmount` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.extension:enterer</t>
-  </si>
-  <si>
-    <t>enterer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.enterer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.enterer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.enterer` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.location` has a context of PaymentReconciliation based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.modifierExtension</t>
@@ -855,195 +819,75 @@
     <t>FiveWs.source</t>
   </si>
   <si>
-    <t>PaymentReconciliation.paymentIssuer.id</t>
+    <t>PaymentReconciliation.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Reference to requesting resource</t>
+  </si>
+  <si>
+    <t>Original request resource reference.</t>
+  </si>
+  <si>
+    <t>Needed to allow the response to be linked to the request.</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>A02|G01</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.requestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Responsible practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who is responsible for the services rendered to the patient.</t>
+  </si>
+  <si>
+    <t>Need to identify the party responsible for the request.</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.outcome</t>
+  </si>
+  <si>
+    <t>queued | complete | error | partial</t>
+  </si>
+  <si>
+    <t>The outcome of a request for a reconciliation.</t>
+  </si>
+  <si>
+    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
+  </si>
+  <si>
+    <t>To advise the requestor of an overall processing outcome.</t>
+  </si>
+  <si>
+    <t>The outcome of the processing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.disposition</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.extension:paymentIssuer</t>
-  </si>
-  <si>
-    <t>paymentIssuer</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.paymentIssuer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PaymentReconciliation.paymentIssuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PaymentReconciliation.paymentIssuer` has is mapped to FHIR R4 element `PaymentReconciliation.paymentIssuer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Reference to requesting resource</t>
-  </si>
-  <si>
-    <t>Original request resource reference.</t>
-  </si>
-  <si>
-    <t>Needed to allow the response to be linked to the request.</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>A02|G01</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.requestor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Responsible practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who is responsible for the services rendered to the patient.</t>
-  </si>
-  <si>
-    <t>Need to identify the party responsible for the request.</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.outcome</t>
-  </si>
-  <si>
-    <t>queued | complete | error | partial</t>
-  </si>
-  <si>
-    <t>The outcome of a request for a reconciliation.</t>
-  </si>
-  <si>
-    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
-  </si>
-  <si>
-    <t>To advise the requestor of an overall processing outcome.</t>
-  </si>
-  <si>
-    <t>The outcome of the processing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.disposition</t>
-  </si>
-  <si>
     <t>Disposition message</t>
   </si>
   <si>
@@ -1122,23 +966,41 @@
     <t>PaymentReconciliation.detail.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PaymentReconciliation.detail.extension</t>
   </si>
   <si>
-    <t>PaymentReconciliation.detail.extension:allocation</t>
-  </si>
-  <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.extension:targetItem</t>
+  </si>
+  <si>
+    <t>targetItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.allocation.targetItem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for PaymentReconciliation.allocation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `PaymentReconciliation.allocation` has is mapped to FHIR R4 element `PaymentReconciliation.detail`, but has no comparisons.</t>
+    <t>Cross-version extension for PaymentReconciliation.allocation.targetItem[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the claim line item, encounter or other sub-element being paid. Note payment may be partial, that is not match the then outstanding balance or amount incurred.</t>
+  </si>
+  <si>
+    <t>Element `PaymentReconciliation.allocation.targetItem[x]` has a context of PaymentReconciliation.detail based on following the parent source element upwards and mapping to `PaymentReconciliation`.</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.modifierExtension</t>
@@ -1332,20 +1194,10 @@
     <t>PaymentReconciliation.processNote.extension</t>
   </si>
   <si>
-    <t>PaymentReconciliation.processNote.extension:processNote</t>
-  </si>
-  <si>
-    <t>processNote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PaymentReconciliation.processNote}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PaymentReconciliation.processNote from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `PaymentReconciliation.processNote` has is mapped to FHIR R4 element `PaymentReconciliation.processNote`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>PaymentReconciliation.processNote.modifierExtension</t>
@@ -1688,7 +1540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1697,7 +1549,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.04296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1707,7 +1559,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1721,11 +1573,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.7890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.66796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -4161,43 +4013,43 @@
         <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4245,7 +4097,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4269,19 +4121,17 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4290,7 +4140,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4302,18 +4152,18 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4361,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4373,13 +4223,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4390,21 +4240,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4413,22 +4263,22 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4453,13 +4303,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4477,39 +4327,39 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4520,7 +4370,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4529,20 +4379,20 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4591,13 +4441,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4606,10 +4456,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4620,10 +4470,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4640,25 +4490,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4683,31 +4531,31 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4722,10 +4570,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4736,10 +4584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4762,17 +4610,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4821,7 +4671,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4836,10 +4686,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4850,10 +4700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4861,7 +4711,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4873,20 +4723,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4935,10 +4785,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4950,13 +4800,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4964,10 +4814,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4987,22 +4837,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5051,7 +4899,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5066,13 +4914,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5080,10 +4928,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5106,16 +4954,20 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5139,13 +4991,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5163,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5175,7 +5027,7 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5187,15 +5039,15 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5206,7 +5058,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5218,16 +5070,18 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5263,34 +5117,34 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5304,20 +5158,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5329,21 +5181,21 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5391,19 +5243,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5420,10 +5272,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5431,7 +5283,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5446,18 +5298,18 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5505,16 +5357,16 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -5529,15 +5381,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5557,21 +5409,23 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5595,31 +5449,31 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5643,15 +5497,15 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5662,7 +5516,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5671,21 +5525,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5733,13 +5587,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5757,15 +5611,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5785,20 +5639,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5859,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5871,15 +5723,15 @@
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>130</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5890,7 +5742,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5902,18 +5754,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5949,40 +5799,38 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5990,12 +5838,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6016,18 +5866,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6075,19 +5925,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6096,7 +5946,7 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6104,45 +5954,45 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6167,13 +6017,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6197,13 +6047,13 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6215,15 +6065,15 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6246,17 +6096,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6305,7 +6155,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6320,7 +6170,7 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6334,10 +6184,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6345,7 +6195,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -6357,20 +6207,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6419,10 +6269,10 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>87</v>
@@ -6448,10 +6298,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6471,20 +6321,22 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6509,13 +6361,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6533,7 +6385,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -6562,10 +6414,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6588,19 +6440,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6649,7 +6499,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6678,10 +6528,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6692,7 +6542,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6704,17 +6554,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6763,13 +6613,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6792,10 +6642,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6818,16 +6668,18 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6875,7 +6727,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6887,7 +6739,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6899,15 +6751,15 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6918,7 +6770,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6930,16 +6782,18 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6975,29 +6829,31 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7014,14 +6870,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7030,7 +6884,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7042,18 +6896,18 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7101,19 +6955,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7130,45 +6984,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7217,19 +7069,19 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7241,15 +7093,15 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7272,17 +7124,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7331,7 +7183,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7360,10 +7212,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7386,17 +7238,19 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7421,13 +7275,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7445,7 +7299,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7474,10 +7328,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7485,10 +7339,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7500,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>373</v>
@@ -7508,11 +7362,9 @@
       <c r="M51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7537,13 +7389,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7561,13 +7413,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7590,10 +7442,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7616,18 +7468,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7675,7 +7525,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7687,7 +7537,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7699,26 +7549,26 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7730,18 +7580,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7789,19 +7639,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7813,48 +7663,50 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7903,19 +7755,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7927,15 +7779,15 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7958,17 +7810,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7993,13 +7845,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8017,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8046,10 +7898,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8072,17 +7924,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8131,7 +7983,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8152,1149 +8004,9 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
     </row>
